--- a/data/trans_bre/P16A10-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A10-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,98%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 9,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 5,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 8,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 7,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,25; 1201,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,77; 383,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,8; 457,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,93; 249,84</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,0%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 1,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 3,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 2,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 2,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,97; 33,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,93; 104,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,7; 52,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,61; 42,02</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 1,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 1,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 2,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,97; 31,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,87; 50,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,41; 30,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,0; 76,43</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,48%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 1,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 0,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 1,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,48; -0,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,44; 44,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,02; 24,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,92; 37,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,82; -11,56</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,73%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 2,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 0,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 1,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 0,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,08; 71,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,97; 8,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,07; 26,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,35; 12,16</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,83%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 0,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 0,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 0,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 0,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,98; 18,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,39; 11,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,7; 9,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,11; 6,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A10-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>149,85%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>47,98%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 9,3</t>
+          <t>-2,81; 2,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 5,96</t>
+          <t>-1,46; 3,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 8,8</t>
+          <t>-2,77; 2,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,8</t>
+          <t>-2,11; 2,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,25; 1201,98</t>
+          <t>-40,12; 45,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-81,77; 383,54</t>
+          <t>-25,49; 89,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-75,8; 457,61</t>
+          <t>-35,9; 51,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 249,84</t>
+          <t>-26,35; 45,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,65%</t>
+          <t>-10,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>47,27%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,42</t>
+          <t>-2,88; 1,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,85</t>
+          <t>-2,08; 1,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,9</t>
+          <t>-2,82; 1,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,32</t>
+          <t>-0,04; 3,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,97; 33,33</t>
+          <t>-39,97; 31,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 104,57</t>
+          <t>-34,87; 50,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 52,71</t>
+          <t>-41,41; 30,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 42,02</t>
+          <t>-1,13; 211,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,39%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>-8,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>-50,73%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,47</t>
+          <t>-2,92; 1,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,9</t>
+          <t>-3,44; 0,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,49</t>
+          <t>-3,07; 1,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,43</t>
+          <t>-6,43; -1,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 31,1</t>
+          <t>-44,44; 44,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,87; 50,0</t>
+          <t>-56,02; 24,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,41; 30,99</t>
+          <t>-40,92; 37,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 76,43</t>
+          <t>-75,92; -22,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,14%</t>
+          <t>-22,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>-20,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-43,48%</t>
+          <t>-18,44%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,87</t>
+          <t>-1,05; 2,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,89</t>
+          <t>-3,78; 0,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,91</t>
+          <t>-3,28; 1,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,48; -0,73</t>
+          <t>-3,0; 0,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 44,8</t>
+          <t>-20,08; 71,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 24,74</t>
+          <t>-47,97; 8,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 37,7</t>
+          <t>-48,07; 26,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,82; -11,56</t>
+          <t>-39,84; 8,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-22,54%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-20,47%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-15,73%</t>
+          <t>-8,99%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,68</t>
+          <t>-1,29; 0,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,48</t>
+          <t>-1,54; 0,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,19</t>
+          <t>-1,74; 0,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 0,61</t>
+          <t>-1,67; 0,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 71,52</t>
+          <t>-20,98; 18,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,97; 8,96</t>
+          <t>-26,39; 11,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,07; 26,64</t>
+          <t>-26,7; 9,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 12,16</t>
+          <t>-28,11; 18,66</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-2,17%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-8,99%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-9,95%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-10,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 0,92</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 0,53</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 0,49</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 0,35</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-20,98; 18,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-26,39; 11,87</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-26,7; 9,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-26,11; 6,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A10-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,08</t>
+          <t>-2,89; 1,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,28</t>
+          <t>-1,77; 3,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,81</t>
+          <t>-2,35; 3,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,46</t>
+          <t>-2,06; 2,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,12; 45,82</t>
+          <t>-42,54; 39,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,49; 89,99</t>
+          <t>-29,22; 91,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 51,87</t>
+          <t>-30,93; 61,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 45,91</t>
+          <t>-25,07; 42,72</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,47</t>
+          <t>-2,74; 1,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,9</t>
+          <t>-1,82; 2,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,49</t>
+          <t>-2,59; 1,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,86</t>
+          <t>0,11; 3,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 31,1</t>
+          <t>-39,69; 31,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,87; 50,0</t>
+          <t>-31,94; 54,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,41; 30,99</t>
+          <t>-39,69; 35,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 211,28</t>
+          <t>0,44; 195,18</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,87</t>
+          <t>-2,67; 2,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,89</t>
+          <t>-3,49; 1,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,91</t>
+          <t>-3,07; 1,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; -1,26</t>
+          <t>-6,24; -1,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 44,8</t>
+          <t>-41,83; 50,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 24,74</t>
+          <t>-55,39; 36,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 37,7</t>
+          <t>-40,44; 39,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,92; -22,51</t>
+          <t>-76,73; -23,93</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,68</t>
+          <t>-1,02; 2,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,48</t>
+          <t>-3,62; 0,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,19</t>
+          <t>-3,37; 0,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,46</t>
+          <t>-3,35; 0,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 71,52</t>
+          <t>-18,61; 77,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,97; 8,96</t>
+          <t>-48,25; 12,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,07; 26,64</t>
+          <t>-49,86; 15,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,84; 8,55</t>
+          <t>-44,22; 9,52</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,92</t>
+          <t>-1,16; 1,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,53</t>
+          <t>-1,68; 0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,49</t>
+          <t>-1,75; 0,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,86</t>
+          <t>-1,58; 0,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 18,58</t>
+          <t>-19,04; 20,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 11,87</t>
+          <t>-28,5; 12,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 9,19</t>
+          <t>-26,44; 9,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 18,66</t>
+          <t>-27,04; 15,99</t>
         </is>
       </c>
     </row>
